--- a/InputSheet/Input Sheet-PA tool2.xlsx
+++ b/InputSheet/Input Sheet-PA tool2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
   <si>
     <t>MAR/DEC</t>
   </si>
@@ -101,10 +101,10 @@
     <t>Last Updated</t>
   </si>
   <si>
-    <t>M.B.N. Rao</t>
-  </si>
-  <si>
-    <t>28-07-2010</t>
+    <t>K. V. Kamath</t>
+  </si>
+  <si>
+    <t>02-05-2009</t>
   </si>
   <si>
     <t>ID</t>
@@ -122,100 +122,130 @@
     <t>N</t>
   </si>
   <si>
-    <t>Banking &amp; Finance</t>
-  </si>
-  <si>
-    <t>B.Sc. (Agriculture), C.A.I.I.B., I.I.B.F., Diploma (Computer Studies)</t>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>BE (Mechanical), MBA</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>By Anubhav Goyal on 15-07-2015</t>
-  </si>
-  <si>
-    <t>Indresh Narain</t>
-  </si>
-  <si>
-    <t>10-07-2006</t>
+    <t>By Gaurav Bansal on 27-05-2015</t>
+  </si>
+  <si>
+    <t>R. Seshasayee</t>
+  </si>
+  <si>
+    <t>13-01-2011</t>
+  </si>
+  <si>
+    <t>B.Com., C.A.</t>
+  </si>
+  <si>
+    <t>Ravi Venkatesan</t>
+  </si>
+  <si>
+    <t>30-11--0001</t>
+  </si>
+  <si>
+    <t>General Management</t>
+  </si>
+  <si>
+    <t>B.S. (Mechanical Engg.), M.S (Industrial Engg.), M.B.A</t>
+  </si>
+  <si>
+    <t>Jeffrey S. Lehman</t>
+  </si>
+  <si>
+    <t>14-04-2006</t>
   </si>
   <si>
     <t>Legal</t>
   </si>
   <si>
-    <t>B.A.</t>
-  </si>
-  <si>
-    <t>V. Srinivasa Rangan</t>
-  </si>
-  <si>
-    <t>31-07-2013</t>
-  </si>
-  <si>
-    <t>Finance</t>
-  </si>
-  <si>
-    <t>B.com., C.A., I.C.W.A.I</t>
-  </si>
-  <si>
-    <t>Nalin Mansukhlal Shah</t>
-  </si>
-  <si>
-    <t>C.A., I.C.A.E.W</t>
-  </si>
-  <si>
-    <t>Bharati Rao</t>
-  </si>
-  <si>
-    <t>31-07-2014</t>
-  </si>
-  <si>
-    <t>P.G.(Economics), CAIIB</t>
-  </si>
-  <si>
-    <t>M.M. Murugappan</t>
-  </si>
-  <si>
-    <t>27-01-2015</t>
-  </si>
-  <si>
-    <t>NEDP</t>
-  </si>
-  <si>
-    <t>General Management</t>
-  </si>
-  <si>
-    <t>B.Tech(Chemical), M.Sc.( Chemical)</t>
+    <t>A.B. (Mathematics), M.P.P. &amp; J.D.</t>
+  </si>
+  <si>
+    <t>Kiran Mazumdar Shaw</t>
+  </si>
+  <si>
+    <t>10-01-2014</t>
+  </si>
+  <si>
+    <t>Biotechnology</t>
+  </si>
+  <si>
+    <t>B.Sc. (Zoology Hons.), PGD (malting and brewing),</t>
+  </si>
+  <si>
+    <t>Carol M. Browner</t>
+  </si>
+  <si>
+    <t>29-04-2014</t>
+  </si>
+  <si>
+    <t>Administrative</t>
+  </si>
+  <si>
+    <t>B.A., Deg.(Law)</t>
+  </si>
+  <si>
+    <t>John W. Etchemendy</t>
+  </si>
+  <si>
+    <t>04-12-2014</t>
+  </si>
+  <si>
+    <t>Academician</t>
+  </si>
+  <si>
+    <t>B.A., M.A., Ph.D. in Philosphy</t>
+  </si>
+  <si>
+    <t>Roopa Kudva</t>
+  </si>
+  <si>
+    <t>04-02-2015</t>
+  </si>
+  <si>
+    <t>PGDM</t>
+  </si>
+  <si>
+    <t>U. B. Pravin Rao</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Industry Specialist</t>
+  </si>
+  <si>
+    <t>BE (Electrical Engg.)</t>
   </si>
   <si>
     <t>Retiring</t>
   </si>
   <si>
-    <t>N. Srinivasan</t>
-  </si>
-  <si>
-    <t>29-12-2006</t>
-  </si>
-  <si>
-    <t>NED</t>
-  </si>
-  <si>
-    <t>B.Com., C.A., C.S</t>
-  </si>
-  <si>
-    <t>Vellayan Subbiah</t>
-  </si>
-  <si>
-    <t>19-08-2010</t>
-  </si>
-  <si>
-    <t>EDP</t>
+    <t>By Anubhav Goyal on 30-06-2015</t>
+  </si>
+  <si>
+    <t>Vishal Sikka</t>
+  </si>
+  <si>
+    <t>14-06-2014</t>
   </si>
   <si>
     <t>MD</t>
   </si>
   <si>
-    <t>B.Tech (Civil Engg.), M.B.A.</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>Ph.D. in C.S.</t>
   </si>
   <si>
     <t>Director Remuneration</t>
@@ -332,9 +362,6 @@
     <t>CSR Committee Attendance</t>
   </si>
   <si>
-    <t xml:space="preserve">Non Audit Fee </t>
-  </si>
-  <si>
     <t>Risk Management Committee Attendance</t>
   </si>
   <si>
@@ -365,19 +392,16 @@
     <t>Auditor's Name</t>
   </si>
   <si>
-    <t>Deloitte Haskins &amp; Sells</t>
+    <t>BSR and Co.</t>
   </si>
   <si>
     <t>Auditor's Reg. No</t>
   </si>
   <si>
-    <t>008072S</t>
-  </si>
-  <si>
     <t>Auditor's Parent Company</t>
   </si>
   <si>
-    <t>Deloitte Touche Tohmatsu</t>
+    <t>KPMG</t>
   </si>
   <si>
     <t>Auditor's Tenure</t>
@@ -386,7 +410,7 @@
     <t>Audit Partner Name</t>
   </si>
   <si>
-    <t>Sudhir Soni</t>
+    <t>Akhil Bansal</t>
   </si>
   <si>
     <t>Audit Partner Membership No.</t>
@@ -1076,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:36" customHeight="1" ht="21" s="3" customFormat="1">
       <c r="A1" s="1">
-        <v>511243</v>
+        <v>500209</v>
       </c>
       <c r="B1" s="2">
         <v>2015</v>
@@ -1181,7 +1205,7 @@
     </row>
     <row r="3" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A3" s="2">
-        <v>287260</v>
+        <v>43501</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
@@ -1191,10 +1215,10 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
@@ -1212,37 +1236,37 @@
         <v>33</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
+      <c r="P3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R3" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S3" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U3" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V3" s="10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>35</v>
@@ -1250,9 +1274,7 @@
       <c r="X3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="Y3" s="12">
-        <v>2.74</v>
-      </c>
+      <c r="Y3" s="12"/>
       <c r="Z3" s="12" t="s">
         <v>37</v>
       </c>
@@ -1271,7 +1293,7 @@
     </row>
     <row r="4" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A4" s="2">
-        <v>501297</v>
+        <v>47985</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
@@ -1281,10 +1303,10 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
@@ -1299,50 +1321,48 @@
         <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R4" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S4" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T4" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y4" s="12">
-        <v>1.49</v>
-      </c>
+      <c r="Y4" s="12"/>
       <c r="Z4" s="12" t="s">
         <v>37</v>
       </c>
@@ -1361,20 +1381,20 @@
     </row>
     <row r="5" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A5" s="2">
-        <v>30248</v>
+        <v>621398</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>30</v>
@@ -1389,10 +1409,10 @@
         <v>32</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>33</v>
@@ -1401,38 +1421,36 @@
         <v>31</v>
       </c>
       <c r="O5" s="2">
-        <v>4000</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R5" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S5" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="T5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V5" s="10">
         <v>0</v>
       </c>
       <c r="W5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" s="12">
-        <v>1.54</v>
-      </c>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="12" t="s">
         <v>37</v>
       </c>
@@ -1451,20 +1469,20 @@
     </row>
     <row r="6" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A6" s="2">
-        <v>882723</v>
+        <v>92981</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F6" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
@@ -1479,50 +1497,48 @@
         <v>32</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
+      <c r="P6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U6" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="V6" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y6" s="12">
-        <v>1.53</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="Y6" s="12"/>
       <c r="Z6" s="12" t="s">
         <v>37</v>
       </c>
@@ -1541,13 +1557,13 @@
     </row>
     <row r="7" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A7" s="2">
-        <v>1892516</v>
+        <v>347229</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -1572,47 +1588,45 @@
         <v>33</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R7" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S7" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V7" s="10">
         <v>0</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y7" s="12">
-        <v>0.82</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="Y7" s="12"/>
       <c r="Z7" s="12" t="s">
         <v>37</v>
       </c>
@@ -1631,26 +1645,26 @@
     </row>
     <row r="8" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A8" s="2">
-        <v>170478</v>
+        <v>6858688</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>32</v>
@@ -1668,43 +1682,41 @@
         <v>33</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O8" s="2">
-        <v>8748</v>
-      </c>
-      <c r="P8" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R8" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S8" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U8" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V8" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="12">
-        <v>0.22</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="Y8" s="12"/>
       <c r="Z8" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="12" t="s">
         <v>38</v>
@@ -1721,7 +1733,7 @@
     </row>
     <row r="9" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A9" s="2">
-        <v>123338</v>
+        <v>7029756</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>58</v>
@@ -1731,70 +1743,68 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2">
-        <v>25000</v>
-      </c>
-      <c r="P9" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U9" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V9" s="10">
         <v>0</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X9" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="12">
-        <v>1.62</v>
-      </c>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="12" t="s">
         <v>38</v>
@@ -1811,7 +1821,7 @@
     </row>
     <row r="10" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
       <c r="A10" s="2">
-        <v>1138759</v>
+        <v>1766</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
@@ -1821,70 +1831,68 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2">
-        <v>245493</v>
-      </c>
-      <c r="P10" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="R10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S10" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T10" s="2">
+        <v>1</v>
+      </c>
+      <c r="U10" s="2">
         <v>2</v>
       </c>
-      <c r="U10" s="2">
-        <v>4</v>
-      </c>
       <c r="V10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y10" s="12">
-        <v>42.57</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="12" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="12" t="s">
         <v>38</v>
@@ -1900,33 +1908,83 @@
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2">
+        <v>6782450</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="12"/>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="2">
+        <v>277760</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
+      <c r="Z11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>70</v>
+      </c>
       <c r="AB11" s="2"/>
       <c r="AC11" s="12"/>
       <c r="AD11" s="2"/>
@@ -1938,33 +1996,83 @@
       <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36" customHeight="1" ht="14.25" s="9" customFormat="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2">
+        <v>6897177</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="12"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2">
+        <v>1</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
+      <c r="Z12" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="AB12" s="2"/>
       <c r="AC12" s="12"/>
       <c r="AD12" s="2"/>
@@ -2357,52 +2465,52 @@
     </row>
     <row r="23" spans="1:36" customHeight="1" ht="25.5">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N23" s="13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O23" s="14" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:36" customHeight="1" ht="14.25">
@@ -2410,34 +2518,34 @@
         <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>0.15</v>
+        <v>1.97</v>
       </c>
       <c r="D24" s="2">
-        <v>0.0452</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>0.1</v>
+        <v>1.63</v>
       </c>
       <c r="F24" s="2">
-        <v>0.028</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>0.1</v>
+        <v>1.38</v>
       </c>
       <c r="H24" s="2">
-        <v>0.0255</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0.15</v>
+        <v>1.04</v>
       </c>
       <c r="J24" s="2">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0677</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L24" s="2">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="M24" s="16">
         <v>0</v>
@@ -2446,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:36" customHeight="1" ht="14.25">
@@ -2458,34 +2566,34 @@
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>0.075</v>
+        <v>1.03</v>
       </c>
       <c r="D25" s="2">
-        <v>0.0295</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>0.05</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F25" s="2">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0.05</v>
+        <v>0.7</v>
       </c>
       <c r="H25" s="2">
-        <v>0.0165</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0.05</v>
+        <v>0.65</v>
       </c>
       <c r="J25" s="2">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="L25" s="2">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="M25" s="16">
         <v>0</v>
@@ -2494,40 +2602,40 @@
         <v>0</v>
       </c>
       <c r="O25" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P25" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:36" customHeight="1" ht="14.25">
       <c r="A26" s="18"/>
       <c r="B26" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>0.075</v>
+        <v>0.84</v>
       </c>
       <c r="D26" s="2">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>0.05</v>
+        <v>0.82</v>
       </c>
       <c r="F26" s="2">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0.05</v>
+        <v>0.79</v>
       </c>
       <c r="H26" s="2">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>0.034</v>
+        <v>0.59</v>
       </c>
       <c r="J26" s="2">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
         <v>0</v>
@@ -2542,43 +2650,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:36" customHeight="1" ht="14.25">
       <c r="A27" s="18"/>
       <c r="B27" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2">
-        <v>0.075</v>
+        <v>1.2</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0325</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0334</v>
+        <v>1.13</v>
       </c>
       <c r="F27" s="2">
-        <v>0.0045</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
       </c>
       <c r="I27" s="2">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
@@ -2590,25 +2698,25 @@
         <v>0</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:36" customHeight="1" ht="14.25">
       <c r="A28" s="18"/>
       <c r="B28" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2">
-        <v>0.0501</v>
+        <v>0.76</v>
       </c>
       <c r="D28" s="2">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="2">
         <v>0</v>
@@ -2638,22 +2746,22 @@
         <v>0</v>
       </c>
       <c r="O28" s="17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:36" customHeight="1" ht="14.25">
       <c r="A29" s="18"/>
       <c r="B29" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2">
-        <v>0.0132</v>
+        <v>0.85</v>
       </c>
       <c r="D29" s="2">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -2686,48 +2794,48 @@
         <v>0</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:36" customHeight="1" ht="14.25">
       <c r="A30" s="20" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="2">
-        <v>0.075</v>
+        <v>0.23</v>
       </c>
       <c r="D30" s="2">
-        <v>0.0385</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2">
-        <v>0.0215</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0.0225</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>0.022</v>
+        <v>0</v>
       </c>
       <c r="M30" s="16">
         <v>0</v>
@@ -2736,10 +2844,10 @@
         <v>0</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:36" customHeight="1" ht="14.25">
@@ -2748,34 +2856,34 @@
         <v>62</v>
       </c>
       <c r="C31" s="2">
-        <v>0.66</v>
+        <v>0.11</v>
       </c>
       <c r="D31" s="2">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>0.606</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>1.936</v>
+        <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0.5769</v>
+        <v>0</v>
       </c>
       <c r="H31" s="2">
-        <v>1.355</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2">
-        <v>0.2631</v>
+        <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>1.1979</v>
+        <v>0</v>
       </c>
       <c r="K31" s="2">
-        <v>0.2145</v>
+        <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>0.6636</v>
+        <v>0</v>
       </c>
       <c r="M31" s="16">
         <v>0</v>
@@ -2784,42 +2892,106 @@
         <v>0</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:36" customHeight="1" ht="14.25">
       <c r="A32" s="18"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3.79</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="16">
+        <v>0</v>
+      </c>
+      <c r="N32" s="16">
+        <v>0</v>
+      </c>
+      <c r="O32" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="33" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B33" s="6"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
+      <c r="B33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>4.56</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0</v>
+      </c>
+      <c r="O33" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P33" s="14" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="34" spans="1:36" customHeight="1" ht="14.25">
       <c r="B34" s="6"/>
@@ -2973,19 +3145,19 @@
     </row>
     <row r="44" spans="1:36" customHeight="1" ht="25.5">
       <c r="A44" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -3002,13 +3174,13 @@
         <v>28</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -3025,13 +3197,13 @@
         <v>39</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -3045,16 +3217,16 @@
     </row>
     <row r="47" spans="1:36" customHeight="1" ht="14.25">
       <c r="B47" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -3069,16 +3241,16 @@
     </row>
     <row r="48" spans="1:36" customHeight="1" ht="14.25">
       <c r="B48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -3092,16 +3264,16 @@
     </row>
     <row r="49" spans="1:36" customHeight="1" ht="14.25" s="14" customFormat="1">
       <c r="B49" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -3115,16 +3287,16 @@
     </row>
     <row r="50" spans="1:36" customHeight="1" ht="14.25" s="14" customFormat="1">
       <c r="B50" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -3141,13 +3313,13 @@
         <v>58</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -3164,13 +3336,13 @@
         <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -3183,10 +3355,18 @@
       <c r="N52" s="21"/>
     </row>
     <row r="53" spans="1:36" customHeight="1" ht="14.25" s="14" customFormat="1">
-      <c r="B53" s="6"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="B53" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -3198,10 +3378,18 @@
       <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:36" customHeight="1" ht="14.25" s="14" customFormat="1">
-      <c r="B54" s="6"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -3364,46 +3552,46 @@
     </row>
     <row r="65" spans="1:36" customHeight="1" ht="38.25">
       <c r="A65" s="5" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J65" s="13" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K65" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L65" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N65" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:36" customHeight="1" ht="14.25">
@@ -3411,16 +3599,16 @@
         <v>28</v>
       </c>
       <c r="C66" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F66" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G66" s="2">
         <v>6</v>
@@ -3448,19 +3636,19 @@
         <v>39</v>
       </c>
       <c r="C67" s="2">
+        <v>8</v>
+      </c>
+      <c r="D67" s="2">
+        <v>9</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6</v>
+      </c>
+      <c r="F67" s="2">
+        <v>7</v>
+      </c>
+      <c r="G67" s="2">
         <v>5</v>
-      </c>
-      <c r="D67" s="2">
-        <v>6</v>
-      </c>
-      <c r="E67" s="2">
-        <v>5</v>
-      </c>
-      <c r="F67" s="2">
-        <v>6</v>
-      </c>
-      <c r="G67" s="2">
-        <v>6</v>
       </c>
       <c r="H67" s="2">
         <v>6</v>
@@ -3482,19 +3670,19 @@
     </row>
     <row r="68" spans="1:36" customHeight="1" ht="14.25">
       <c r="B68" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E68" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F68" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G68" s="2">
         <v>6</v>
@@ -3519,25 +3707,25 @@
     </row>
     <row r="69" spans="1:36" customHeight="1" ht="14.25">
       <c r="B69" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2">
         <v>5</v>
       </c>
       <c r="D69" s="2">
+        <v>9</v>
+      </c>
+      <c r="E69" s="2">
         <v>6</v>
       </c>
-      <c r="E69" s="2">
-        <v>3</v>
-      </c>
       <c r="F69" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G69" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I69" s="23">
         <v>0</v>
@@ -3556,19 +3744,19 @@
     </row>
     <row r="70" spans="1:36" customHeight="1" ht="14.25">
       <c r="B70" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="2">
         <v>0</v>
@@ -3593,13 +3781,13 @@
     </row>
     <row r="71" spans="1:36" customHeight="1" ht="14.25">
       <c r="B71" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C71" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -3633,22 +3821,22 @@
         <v>58</v>
       </c>
       <c r="C72" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D72" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E72" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72" s="23">
         <v>0</v>
@@ -3670,22 +3858,22 @@
         <v>62</v>
       </c>
       <c r="C73" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D73" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I73" s="23">
         <v>0</v>
@@ -3703,32 +3891,76 @@
       <c r="N73" s="23"/>
     </row>
     <row r="74" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
+      <c r="B74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" s="2">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2">
+        <v>9</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="2">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0</v>
+      </c>
+      <c r="I74" s="23">
+        <v>0</v>
+      </c>
+      <c r="J74" s="23">
+        <v>0</v>
+      </c>
+      <c r="K74" s="23">
+        <v>0</v>
+      </c>
+      <c r="L74" s="23">
+        <v>0</v>
+      </c>
       <c r="M74" s="23"/>
       <c r="N74" s="23"/>
     </row>
     <row r="75" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
+      <c r="B75" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="2">
+        <v>5</v>
+      </c>
+      <c r="D75" s="2">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="2">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0</v>
+      </c>
+      <c r="I75" s="23">
+        <v>0</v>
+      </c>
+      <c r="J75" s="23">
+        <v>0</v>
+      </c>
+      <c r="K75" s="23">
+        <v>0</v>
+      </c>
+      <c r="L75" s="23">
+        <v>0</v>
+      </c>
       <c r="M75" s="23"/>
       <c r="N75" s="23"/>
     </row>
@@ -3884,46 +4116,46 @@
     </row>
     <row r="86" spans="1:36" customHeight="1" ht="38.25">
       <c r="A86" s="5" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B86" s="36" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F86" s="13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:36" customHeight="1" ht="14.25">
@@ -3931,34 +4163,34 @@
         <v>28</v>
       </c>
       <c r="C87" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D87" s="2">
-        <v>7</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I87" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="J87" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="L87" s="23" t="s">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="E87" s="2">
+        <v>3</v>
+      </c>
+      <c r="F87" s="2">
+        <v>3</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="23">
+        <v>2</v>
+      </c>
+      <c r="J87" s="23">
+        <v>2</v>
+      </c>
+      <c r="K87" s="23">
+        <v>0</v>
+      </c>
+      <c r="L87" s="23">
+        <v>0</v>
       </c>
       <c r="M87" s="23"/>
       <c r="N87" s="23"/>
@@ -3968,28 +4200,28 @@
         <v>39</v>
       </c>
       <c r="C88" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I88" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J88" s="23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K88" s="23">
         <v>0</v>
@@ -4002,31 +4234,31 @@
     </row>
     <row r="89" spans="1:36" customHeight="1" ht="14.25">
       <c r="B89" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C89" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D89" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E89" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="2">
         <v>4</v>
       </c>
       <c r="H89" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I89" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" s="23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" s="23">
         <v>0</v>
@@ -4039,19 +4271,19 @@
     </row>
     <row r="90" spans="1:36" customHeight="1" ht="14.25">
       <c r="B90" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C90" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90" s="2">
         <v>0</v>
@@ -4075,39 +4307,17 @@
       <c r="N90" s="23"/>
     </row>
     <row r="91" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B91" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C91" s="2">
-        <v>7</v>
-      </c>
-      <c r="D91" s="2">
-        <v>7</v>
-      </c>
-      <c r="E91" s="2">
-        <v>5</v>
-      </c>
-      <c r="F91" s="2">
-        <v>5</v>
-      </c>
-      <c r="G91" s="2">
-        <v>5</v>
-      </c>
-      <c r="H91" s="2">
-        <v>5</v>
-      </c>
-      <c r="I91" s="23">
-        <v>0</v>
-      </c>
-      <c r="J91" s="23">
-        <v>0</v>
-      </c>
-      <c r="K91" s="23">
-        <v>0</v>
-      </c>
-      <c r="L91" s="23">
-        <v>0</v>
-      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
       <c r="M91" s="23"/>
       <c r="N91" s="23"/>
     </row>
@@ -4338,57 +4548,57 @@
     </row>
     <row r="107" spans="1:36" customHeight="1" ht="38.25">
       <c r="A107" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B107" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="D107" s="13" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L107" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N107" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="108" spans="1:36" customHeight="1" ht="14.25">
       <c r="B108" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D108" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4403,13 +4613,13 @@
     </row>
     <row r="109" spans="1:36" customHeight="1" ht="14.25">
       <c r="B109" s="6" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="C109" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D109" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4423,9 +4633,15 @@
       <c r="N109" s="23"/>
     </row>
     <row r="110" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B110" s="6"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
+      <c r="B110" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="2">
+        <v>4</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -4695,16 +4911,16 @@
     <row r="128" spans="1:36" customHeight="1" ht="14.25" s="14" customFormat="1"/>
     <row r="130" spans="1:36" customHeight="1" ht="25.5">
       <c r="A130" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D130" s="13" t="s">
         <v>104</v>
-      </c>
-      <c r="B130" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D130" s="13" t="s">
-        <v>94</v>
       </c>
       <c r="E130" s="27"/>
       <c r="F130" s="27"/>
@@ -4715,13 +4931,13 @@
     <row r="131" spans="1:36" customHeight="1" ht="14.25">
       <c r="A131" s="28"/>
       <c r="B131" s="26" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D131" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -4731,13 +4947,13 @@
     </row>
     <row r="132" spans="1:36" customHeight="1" ht="14.25">
       <c r="B132" s="26" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C132" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D132" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -4747,13 +4963,13 @@
     </row>
     <row r="133" spans="1:36" customHeight="1" ht="14.25">
       <c r="B133" s="26" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C133" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D133" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -4763,10 +4979,14 @@
     </row>
     <row r="134" spans="1:36" customHeight="1" ht="14.25">
       <c r="B134" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2</v>
+      </c>
+      <c r="D134" s="2">
+        <v>3</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4856,51 +5076,51 @@
     </row>
     <row r="147" spans="1:36" customHeight="1" ht="25.5">
       <c r="A147" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B147" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G147" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H147" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B147" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F147" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G147" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H147" s="13" t="s">
-        <v>96</v>
-      </c>
       <c r="I147" s="13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K147" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L147" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M147" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N147" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="148" spans="1:36" customHeight="1" ht="14.25">
       <c r="B148" s="6" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C148" s="34">
         <v>4</v>
@@ -4921,7 +5141,7 @@
     </row>
     <row r="149" spans="1:36" customHeight="1" ht="14.25">
       <c r="B149" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C149" s="34">
         <v>3</v>
@@ -4942,13 +5162,13 @@
     </row>
     <row r="150" spans="1:36" customHeight="1" ht="14.25">
       <c r="B150" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C150" s="34">
-        <v>4</v>
-      </c>
-      <c r="D150" s="34">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C150" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D150" s="34" t="s">
+        <v>93</v>
       </c>
       <c r="E150" s="23"/>
       <c r="F150" s="23"/>
@@ -4963,13 +5183,13 @@
     </row>
     <row r="151" spans="1:36" customHeight="1" ht="14.25">
       <c r="B151" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C151" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D151" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
@@ -4983,15 +5203,9 @@
       <c r="N151" s="23"/>
     </row>
     <row r="152" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B152" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C152" s="34">
-        <v>4</v>
-      </c>
-      <c r="D152" s="34">
-        <v>4</v>
-      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="34"/>
+      <c r="D152" s="34"/>
       <c r="E152" s="23"/>
       <c r="F152" s="23"/>
       <c r="G152" s="23"/>
@@ -5245,57 +5459,57 @@
     </row>
     <row r="169" spans="1:36" customHeight="1" ht="25.5">
       <c r="A169" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D169" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F169" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J169" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B169" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D169" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="E169" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F169" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I169" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J169" s="13" t="s">
-        <v>97</v>
-      </c>
       <c r="K169" s="13" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L169" s="13" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="M169" s="13" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="N169" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="170" spans="1:36" customHeight="1" ht="14.25">
       <c r="B170" s="6" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C170" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D170" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E170" s="23"/>
       <c r="F170" s="23"/>
@@ -5310,13 +5524,13 @@
     </row>
     <row r="171" spans="1:36" customHeight="1" ht="14.25">
       <c r="B171" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C171" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171" s="23"/>
       <c r="F171" s="23"/>
@@ -5331,13 +5545,13 @@
     </row>
     <row r="172" spans="1:36" customHeight="1" ht="14.25">
       <c r="B172" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C172" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D172" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E172" s="23"/>
       <c r="F172" s="23"/>
@@ -5351,9 +5565,15 @@
       <c r="N172" s="23"/>
     </row>
     <row r="173" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B173" s="6"/>
-      <c r="C173" s="34"/>
-      <c r="D173" s="34"/>
+      <c r="B173" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C173" s="34">
+        <v>1</v>
+      </c>
+      <c r="D173" s="34">
+        <v>1</v>
+      </c>
       <c r="E173" s="23"/>
       <c r="F173" s="23"/>
       <c r="G173" s="23"/>
@@ -5366,9 +5586,15 @@
       <c r="N173" s="23"/>
     </row>
     <row r="174" spans="1:36" customHeight="1" ht="14.25">
-      <c r="B174" s="6"/>
-      <c r="C174" s="34"/>
-      <c r="D174" s="34"/>
+      <c r="B174" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" s="34">
+        <v>1</v>
+      </c>
+      <c r="D174" s="34">
+        <v>1</v>
+      </c>
       <c r="E174" s="23"/>
       <c r="F174" s="23"/>
       <c r="G174" s="23"/>
@@ -5622,7 +5848,7 @@
     </row>
     <row r="206" spans="1:36">
       <c r="A206" s="15" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B206" s="35"/>
       <c r="C206" s="40">
@@ -5652,74 +5878,74 @@
     </row>
     <row r="207" spans="1:36">
       <c r="B207" s="35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C207" s="31">
-        <v>435.16</v>
+        <v>12164</v>
       </c>
       <c r="D207" s="31">
-        <v>364.01</v>
+        <v>10194</v>
       </c>
       <c r="E207" s="31">
-        <v>306.55</v>
+        <v>9116</v>
       </c>
       <c r="F207" s="31">
-        <v>172.54</v>
+        <v>8470</v>
       </c>
       <c r="G207" s="31">
-        <v>62.18</v>
-      </c>
-      <c r="H207" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I207" s="31" t="s">
-        <v>83</v>
+        <v>6443</v>
+      </c>
+      <c r="H207" s="31">
+        <v>5803</v>
+      </c>
+      <c r="I207" s="31">
+        <v>5819</v>
       </c>
       <c r="J207" s="39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="208" spans="1:36">
       <c r="B208" s="35" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C208" s="31">
-        <v>0.28</v>
+        <v>2</v>
       </c>
       <c r="D208" s="31">
-        <v>0.216</v>
+        <v>1</v>
       </c>
       <c r="E208" s="31">
-        <v>0.2935</v>
+        <v>1</v>
       </c>
       <c r="F208" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G208" s="31">
-        <v>0</v>
-      </c>
-      <c r="H208" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I208" s="31" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="H208" s="31">
+        <v>0</v>
+      </c>
+      <c r="I208" s="31">
+        <v>0</v>
       </c>
       <c r="J208" s="39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="209" spans="1:36">
       <c r="B209" s="35" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C209" s="31">
-        <v>0.1998</v>
+        <v>0</v>
       </c>
       <c r="D209" s="31">
-        <v>0.1514</v>
+        <v>0</v>
       </c>
       <c r="E209" s="31">
-        <v>0.0293</v>
+        <v>0</v>
       </c>
       <c r="F209" s="31">
         <v>0</v>
@@ -5727,77 +5953,77 @@
       <c r="G209" s="31">
         <v>0</v>
       </c>
-      <c r="H209" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I209" s="31" t="s">
-        <v>83</v>
+      <c r="H209" s="31">
+        <v>0</v>
+      </c>
+      <c r="I209" s="31">
+        <v>0</v>
       </c>
       <c r="J209" s="39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="210" spans="1:36">
       <c r="B210" s="35" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C210" s="31">
-        <v>0.0975</v>
+        <v>0</v>
       </c>
       <c r="D210" s="31">
-        <v>0.0595</v>
+        <v>0</v>
       </c>
       <c r="E210" s="31">
-        <v>0.2419</v>
+        <v>1</v>
       </c>
       <c r="F210" s="31">
         <v>0</v>
       </c>
       <c r="G210" s="31">
-        <v>0</v>
-      </c>
-      <c r="H210" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I210" s="31" t="s">
-        <v>83</v>
+        <v>2</v>
+      </c>
+      <c r="H210" s="31">
+        <v>0</v>
+      </c>
+      <c r="I210" s="31">
+        <v>0</v>
       </c>
       <c r="J210" s="39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:36">
       <c r="B211" s="35" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C211" s="31">
-        <v>0.5773</v>
+        <v>2</v>
       </c>
       <c r="D211" s="31">
-        <v>0.4269</v>
+        <v>1</v>
       </c>
       <c r="E211" s="31">
-        <v>0.5647</v>
+        <v>2</v>
       </c>
       <c r="F211" s="31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G211" s="31">
-        <v>0</v>
-      </c>
-      <c r="H211" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="I211" s="31" t="s">
-        <v>83</v>
+        <v>4</v>
+      </c>
+      <c r="H211" s="31">
+        <v>0</v>
+      </c>
+      <c r="I211" s="31">
+        <v>0</v>
       </c>
       <c r="J211" s="39" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="222" spans="1:36">
       <c r="A222" s="15" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C222" s="40">
         <v>2015</v>
@@ -5805,63 +6031,59 @@
     </row>
     <row r="223" spans="1:36">
       <c r="B223" s="35" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C223" s="31" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="224" spans="1:36">
       <c r="B224" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C224" s="31" t="s">
-        <v>118</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C224" s="31"/>
     </row>
     <row r="225" spans="1:36">
       <c r="B225" s="35" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="226" spans="1:36">
       <c r="B226" s="35" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C226" s="31">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:36">
       <c r="B227" s="35" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C227" s="31" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="228" spans="1:36">
       <c r="B228" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C228" s="31">
-        <v>41870</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C228" s="31"/>
     </row>
     <row r="229" spans="1:36">
       <c r="B229" s="35" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C229" s="31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:36">
       <c r="A240" s="15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B240" s="35"/>
       <c r="C240" s="41">
@@ -5885,85 +6107,85 @@
     </row>
     <row r="241" spans="1:36">
       <c r="B241" s="35" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C241" s="31">
-        <v>3.5</v>
+        <v>59.5</v>
       </c>
       <c r="D241" s="31">
-        <v>3.5</v>
+        <v>63</v>
       </c>
       <c r="E241" s="31">
-        <v>3.5</v>
+        <v>42</v>
       </c>
       <c r="F241" s="31">
-        <v>2.5</v>
+        <v>47</v>
       </c>
       <c r="G241" s="31">
-        <v>1.5</v>
+        <v>60</v>
       </c>
       <c r="H241" s="31"/>
     </row>
     <row r="242" spans="1:36">
       <c r="B242" s="35" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C242" s="31">
-        <v>286.15</v>
+        <v>1655.3</v>
       </c>
       <c r="D242" s="31">
-        <v>272</v>
+        <v>1471.63</v>
       </c>
       <c r="E242" s="31">
-        <v>181.55</v>
+        <v>1424.4</v>
       </c>
       <c r="F242" s="31">
-        <v>174</v>
+        <v>1609.1</v>
       </c>
       <c r="G242" s="31">
-        <v>94.9</v>
+        <v>1335.7</v>
       </c>
       <c r="H242" s="31"/>
     </row>
     <row r="243" spans="1:36">
       <c r="B243" s="35" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C243" s="31">
-        <v>587.6</v>
+        <v>2216.6</v>
       </c>
       <c r="D243" s="31">
-        <v>286.15</v>
+        <v>1639.43</v>
       </c>
       <c r="E243" s="31">
-        <v>272</v>
+        <v>1444.95</v>
       </c>
       <c r="F243" s="31">
-        <v>181.55</v>
+        <v>1432.48</v>
       </c>
       <c r="G243" s="31">
-        <v>174</v>
+        <v>1618.38</v>
       </c>
       <c r="H243" s="31"/>
     </row>
     <row r="244" spans="1:36">
       <c r="B244" s="35" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C244" s="31">
-        <v>30.09</v>
+        <v>105.91</v>
       </c>
       <c r="D244" s="31">
-        <v>25.43</v>
+        <v>178.39</v>
       </c>
       <c r="E244" s="31">
-        <v>22.09</v>
+        <v>158.76</v>
       </c>
       <c r="F244" s="31">
-        <v>14.39</v>
+        <v>147.51</v>
       </c>
       <c r="G244" s="31">
-        <v>5.67</v>
+        <v>112.26</v>
       </c>
       <c r="H244" s="31"/>
     </row>
